--- a/glids.xlsx
+++ b/glids.xlsx
@@ -18,13 +18,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -60,12 +66,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -440,7 +452,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,430 +460,380 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>46d4</t>
         </is>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="n"/>
       <c r="D1" s="2" t="n">
-        <v>25569.08385570602</v>
+        <v>25569.08362927083</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
       <c r="D2" s="2" t="n">
-        <v>25569.08385570602</v>
+        <v>25569.08362927083</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="inlineStr"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="3" t="inlineStr"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="3" t="inlineStr"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="3" t="inlineStr"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="3" t="inlineStr"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="3" t="inlineStr"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="3" t="inlineStr"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="3" t="inlineStr"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="2" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="3" t="inlineStr"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="3" t="inlineStr"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="3" t="inlineStr"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="3" t="inlineStr"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="3" t="inlineStr"/>
+      <c r="B16" s="5" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="3" t="inlineStr"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="3" t="inlineStr"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="3" t="inlineStr"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="3" t="inlineStr"/>
+      <c r="B20" s="5" t="n"/>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="2" t="n"/>
+    </row>
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="2" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="3" t="inlineStr"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="2" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="3" t="inlineStr"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="3" t="inlineStr"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="2" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="3" t="inlineStr"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="2" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="3" t="inlineStr"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="2" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customHeight="1">
+      <c r="A27" s="3" t="inlineStr"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="2" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customHeight="1">
+      <c r="A28" s="3" t="inlineStr"/>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="2" t="n"/>
+    </row>
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="3" t="inlineStr"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="4" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="3" t="inlineStr"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="4" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="3" t="inlineStr"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="5" t="n"/>
+      <c r="D31" s="4" t="n"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="5" t="n"/>
+      <c r="C32" s="5" t="n"/>
+      <c r="D32" s="4" t="n"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="5" t="n"/>
+      <c r="D33" s="4" t="n"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="3" t="inlineStr"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="3" t="inlineStr"/>
+      <c r="B35" s="5" t="n"/>
+      <c r="C35" s="5" t="n"/>
+      <c r="D35" s="4" t="n"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="3" t="inlineStr"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="5" t="n"/>
+      <c r="D36" s="4" t="n"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="3" t="inlineStr"/>
+      <c r="B37" s="5" t="n"/>
+      <c r="C37" s="5" t="n"/>
+      <c r="D37" s="4" t="n"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="3" t="inlineStr"/>
+      <c r="B38" s="5" t="n"/>
+      <c r="C38" s="5" t="n"/>
+      <c r="D38" s="4" t="n"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="5" t="n"/>
+      <c r="D39" s="4" t="n"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="3" t="inlineStr"/>
+      <c r="B40" s="5" t="n"/>
+      <c r="C40" s="5" t="n"/>
+      <c r="D40" s="4" t="n"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="3" t="inlineStr"/>
+      <c r="B41" s="5" t="n"/>
+      <c r="C41" s="5" t="n"/>
+      <c r="D41" s="4" t="n"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="3" t="inlineStr"/>
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="5" t="n"/>
+      <c r="D42" s="4" t="n"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="3" t="inlineStr"/>
+      <c r="B43" s="5" t="n"/>
+      <c r="C43" s="5" t="n"/>
+      <c r="D43" s="4" t="n"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="3" t="inlineStr"/>
+      <c r="B44" s="5" t="n"/>
+      <c r="C44" s="5" t="n"/>
+      <c r="D44" s="4" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="3" t="inlineStr"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="5" t="n"/>
+      <c r="D45" s="4" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="3" t="inlineStr"/>
+      <c r="B46" s="5" t="n"/>
+      <c r="C46" s="5" t="n"/>
+      <c r="D46" s="4" t="n"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="3" t="inlineStr"/>
+      <c r="B47" s="5" t="n"/>
+      <c r="C47" s="5" t="n"/>
+      <c r="D47" s="4" t="n"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" s="3" t="inlineStr"/>
+      <c r="B48" s="5" t="n"/>
+      <c r="C48" s="5" t="n"/>
+      <c r="D48" s="4" t="n"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" t="inlineStr">
         <is>
-          <t>3423</t>
+          <t>fa10</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="D49" s="7" t="n">
+        <v>45135.58094096064</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
-          <t>43c5</t>
+          <t>5160</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="D50" s="7" t="n">
+        <v>45135.58096115741</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
-          <t>5eb8</t>
+          <t>bb9e</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="D51" s="7" t="n">
+        <v>45135.58655336806</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
-          <t>580b</t>
+          <t>8671</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="D52" s="7" t="n">
+        <v>45135.58700290509</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
-          <t>624f</t>
+          <t>ccbd</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="D53" s="7" t="n">
+        <v>45135.58851390046</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
-          <t>84db</t>
+          <t>5842</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="D54" s="7" t="n">
+        <v>45136.35058357639</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
-          <t>685c</t>
+          <t>447b</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>ef04</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>db24</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>0377</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>ab99</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>b213</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>3ee9</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>9e57</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>9b43</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>3420</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
-      <c r="D18" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>4543</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>bbe5</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n"/>
-      <c r="D21" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>e6ba</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
-      <c r="D22" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>23d5</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>a27a</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>d8b5</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
-      <c r="D25" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>e68e</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
-      <c r="D26" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>218c</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
-      <c r="D27" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>e277</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
-      <c r="D28" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>ea71</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
-      <c r="D29" s="2" t="n">
-        <v>25569.08385571759</v>
-      </c>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>e803</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>45135.48926125</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>45135.48934684028</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>dcc4</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>45135.50304778935</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>5856</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>45135.50583079861</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>cccc</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>45135.50588429398</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>efc7</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>45135.50914877315</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>02fc</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" s="5" t="n">
-        <v>45135.52305850823</v>
+      <c r="D55" s="7" t="n">
+        <v>45136.35345267361</v>
       </c>
     </row>
   </sheetData>

--- a/glids.xlsx
+++ b/glids.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,6 +836,36 @@
         <v>45136.35345267361</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>bf4d</t>
+        </is>
+      </c>
+      <c r="D56" s="7" t="n">
+        <v>45136.36827644676</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3151</t>
+        </is>
+      </c>
+      <c r="D57" s="7" t="n">
+        <v>45136.36828064814</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>f699</t>
+        </is>
+      </c>
+      <c r="D58" s="7" t="n">
+        <v>45136.36829612269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
